--- a/Released/BOM/H0AR91_BOM.xlsx
+++ b/Released/BOM/H0AR91_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Checking Hardware\final modules\H0AR91_Hardware\H0AR91\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\OneDrive\Documents\H0AR9x-Hardware\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A9435A-FC4B-45C5-B11B-60CF7C88E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC1998-A5EF-41B5-B54F-826CA843A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H0AR91" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
   <si>
     <t>Qty</t>
   </si>
@@ -319,9 +319,6 @@
     <t>T491B226K010AT</t>
   </si>
   <si>
-    <t>Quantity in storage</t>
-  </si>
-  <si>
     <t>PINHD-1X3</t>
   </si>
   <si>
@@ -343,15 +340,6 @@
     <t>PCB Header, Unshrouded, Thru 02 Straight Header, .101, AMPMODU Mod II Series</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Backend</t>
-  </si>
-  <si>
-    <t>Frontend</t>
-  </si>
-  <si>
     <t>ERJ-T14J220U</t>
   </si>
   <si>
@@ -359,16 +347,13 @@
   </si>
   <si>
     <t>https://octopart.com/erj-t14j220u-panasonic-44403795?r=sp</t>
-  </si>
-  <si>
-    <t>Frontend/Backend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,13 +504,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -715,12 +693,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -850,26 +828,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -916,76 +874,64 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="42" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1342,36 +1288,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1380,500 +1324,422 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="C3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="E10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>1</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="22">
-        <v>4900</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>1</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="22">
-        <v>30</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="11">
-        <v>290</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>1</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="14">
-        <v>12</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>1</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="11">
-        <v>9</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
         <v>1</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="H19" s="11">
-        <v>12</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
